--- a/2020-06_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-06_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_GIT\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67076C0C-E507-453A-AC58-A288AAD2E2DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1278416-46E5-4EEB-A868-A54CF2274BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="121">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -129,6 +131,9 @@
     <t>95420</t>
   </si>
   <si>
+    <t>97564</t>
+  </si>
+  <si>
     <t>Tőke Tamás</t>
   </si>
   <si>
@@ -136,6 +141,9 @@
   </si>
   <si>
     <t>5,7</t>
+  </si>
+  <si>
+    <t>134.950</t>
   </si>
   <si>
     <t>2020-06-03</t>
@@ -1247,25 +1255,25 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="22" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="26.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="32" width="12.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="32" width="12.33203125" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1278,7 +1286,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1291,7 +1299,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1303,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1316,17 +1324,17 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1338,45 +1346,43 @@
         <v>2</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f>SUM(I10:I57)</f>
+        <f>SUM(I10:I105)</f>
         <v>2144</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="8" t="str">
-        <f>C5+G5</f>
-        <v>95420</v>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="e">
+      <c r="G6" s="9" t="str">
         <f>100*G7/G5</f>
-        <v>#DIV/0!</v>
+        <v>6.294</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="30">
-        <f>SUM(H10:H57)</f>
-        <v>0</v>
+      <c r="G7" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1430,24 +1436,24 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="26" t="n">
         <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
@@ -1460,27 +1466,27 @@
         <v>22.0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="26" t="n">
         <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
@@ -1493,27 +1499,27 @@
         <v>22.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="26" t="n">
         <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
@@ -1526,30 +1532,30 @@
         <v>49.0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1562,30 +1568,30 @@
         <v>49.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1598,27 +1604,27 @@
         <v>50.0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1631,27 +1637,27 @@
         <v>52.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1664,27 +1670,27 @@
         <v>47.0</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1697,27 +1703,27 @@
         <v>50.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1730,27 +1736,27 @@
         <v>75.0</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1763,27 +1769,27 @@
         <v>11.0</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1796,27 +1802,27 @@
         <v>10.0</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1829,27 +1835,27 @@
         <v>66.0</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G22" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1862,27 +1868,27 @@
         <v>31.0</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1895,27 +1901,27 @@
         <v>36.0</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1928,27 +1934,27 @@
         <v>8.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1961,27 +1967,27 @@
         <v>50.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26" s="26" t="n">
         <f t="shared" si="0"/>
@@ -1994,27 +2000,27 @@
         <v>50.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2027,27 +2033,27 @@
         <v>27.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2060,27 +2066,27 @@
         <v>27.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G29" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2093,27 +2099,27 @@
         <v>5.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>23</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2126,27 +2132,27 @@
         <v>63.0</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>24</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G31" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2159,27 +2165,27 @@
         <v>68.0</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2192,27 +2198,27 @@
         <v>18.0</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>26</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G33" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2225,27 +2231,27 @@
         <v>18.0</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>29</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2258,27 +2264,27 @@
         <v>30.0</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>30</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2291,27 +2297,27 @@
         <v>59.0</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>31</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2324,27 +2330,27 @@
         <v>77.0</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>32</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G37" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2357,27 +2363,27 @@
         <v>6.0</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>33</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G38" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2390,27 +2396,27 @@
         <v>64.0</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>34</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2423,27 +2429,27 @@
         <v>19.0</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>35</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2456,27 +2462,27 @@
         <v>13.0</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>36</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G41" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2489,27 +2495,27 @@
         <v>8.0</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>37</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G42" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2522,27 +2528,27 @@
         <v>56.0</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>38</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2555,27 +2561,27 @@
         <v>5.0</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>39</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G44" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2588,27 +2594,27 @@
         <v>5.0</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>40</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G45" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2621,27 +2627,27 @@
         <v>84.0</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>41</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G46" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2654,27 +2660,27 @@
         <v>84.0</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>42</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G47" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2690,24 +2696,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>43</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G48" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2720,27 +2726,27 @@
         <v>46.0</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>44</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G49" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2753,27 +2759,27 @@
         <v>20.0</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>45</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G50" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2786,27 +2792,27 @@
         <v>28.0</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>46</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G51" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2819,27 +2825,27 @@
         <v>49.0</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>47</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G52" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2852,27 +2858,27 @@
         <v>49.0</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>48</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G53" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2885,27 +2891,27 @@
         <v>78.0</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>49</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54" s="26" t="n">
         <f t="shared" si="0"/>
@@ -2918,27 +2924,27 @@
         <v>78.0</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>50</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G55" s="26" t="n">
         <f t="shared" ref="G55:G65" si="1">IF(B55&lt;&gt;"",G54+I55,"")</f>
@@ -2951,27 +2957,27 @@
         <v>5.0</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>51</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G56" s="26" t="n">
         <f t="shared" si="1"/>
@@ -2984,27 +2990,27 @@
         <v>5.0</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>52</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G57" s="26" t="n">
         <f t="shared" si="1"/>
@@ -3017,27 +3023,27 @@
         <v>17.0</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>53</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G58" s="26" t="n">
         <f t="shared" si="1"/>
@@ -3050,27 +3056,27 @@
         <v>17.0</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>54</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G59" s="26" t="n">
         <f t="shared" si="1"/>
@@ -3083,27 +3089,27 @@
         <v>49.0</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>55</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G60" s="26" t="n">
         <f t="shared" si="1"/>
@@ -3116,27 +3122,27 @@
         <v>49.0</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>56</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G61" s="26" t="n">
         <f t="shared" si="1"/>
@@ -3152,7 +3158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>57</v>
       </c>
@@ -3169,7 +3175,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>58</v>
       </c>
@@ -3186,7 +3192,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>59</v>
       </c>
@@ -3203,7 +3209,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>60</v>
       </c>
@@ -3220,7 +3226,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>61</v>
       </c>
@@ -3237,7 +3243,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>62</v>
       </c>
@@ -3254,7 +3260,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>63</v>
       </c>
@@ -3271,7 +3277,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>64</v>
       </c>
@@ -3288,7 +3294,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>65</v>
       </c>
@@ -3305,7 +3311,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>66</v>
       </c>
@@ -3322,7 +3328,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>67</v>
       </c>
@@ -3339,7 +3345,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>68</v>
       </c>
@@ -3356,7 +3362,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>69</v>
       </c>
@@ -3373,7 +3379,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>70</v>
       </c>
@@ -3390,7 +3396,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>71</v>
       </c>
@@ -3407,7 +3413,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>72</v>
       </c>
@@ -3424,7 +3430,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>73</v>
       </c>
@@ -3441,7 +3447,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>74</v>
       </c>
@@ -3458,7 +3464,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>75</v>
       </c>
@@ -3475,7 +3481,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>76</v>
       </c>
@@ -3492,7 +3498,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>77</v>
       </c>
@@ -3509,7 +3515,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>78</v>
       </c>
@@ -3526,7 +3532,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>79</v>
       </c>
@@ -3543,7 +3549,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>80</v>
       </c>
@@ -3560,7 +3566,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>81</v>
       </c>
@@ -3577,7 +3583,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>82</v>
       </c>
@@ -3594,7 +3600,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>83</v>
       </c>
@@ -3611,7 +3617,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>84</v>
       </c>
@@ -3628,7 +3634,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>85</v>
       </c>
@@ -3645,7 +3651,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>86</v>
       </c>
@@ -3662,7 +3668,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>87</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>88</v>
       </c>
@@ -3696,7 +3702,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>89</v>
       </c>
@@ -3713,7 +3719,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>90</v>
       </c>
@@ -3730,7 +3736,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>91</v>
       </c>
@@ -3747,7 +3753,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>92</v>
       </c>
@@ -3764,7 +3770,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>93</v>
       </c>
@@ -3781,7 +3787,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>94</v>
       </c>
@@ -3798,7 +3804,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>95</v>
       </c>
@@ -3815,7 +3821,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>96</v>
       </c>
@@ -3832,7 +3838,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>97</v>
       </c>
@@ -3849,7 +3855,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>98</v>
       </c>
@@ -3874,7 +3880,7 @@
       </c>
       <c r="M103" s="36"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>99</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>100</v>
       </c>

--- a/2020-06_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-06_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -3874,9 +3874,9 @@
       <c r="K103" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L103" s="35">
+      <c r="L103" s="35" t="str">
         <f>SUM(I10:I105)</f>
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="M103" s="36"/>
     </row>
@@ -3899,13 +3899,13 @@
       <c r="K104" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L104" s="38">
+      <c r="L104" s="38" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="39" t="e">
+        <v>240</v>
+      </c>
+      <c r="M104" s="39" t="str">
         <f>L104/L103</f>
-        <v>#DIV/0!</v>
+        <v>11%</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -3927,9 +3927,9 @@
       <c r="K105" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="L105" s="41">
+      <c r="L105" s="41" t="str">
         <f>C5+L103</f>
-        <v>0</v>
+        <v>97564</v>
       </c>
       <c r="M105" s="42"/>
     </row>
